--- a/helper/seed/User.xlsx
+++ b/helper/seed/User.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24102"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B96A4995-DA31-49DD-98C3-0DFCFD074E71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4F24901-1986-4C22-A9F8-5548DFF3E4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="262">
   <si>
     <t>ID</t>
   </si>
@@ -203,13 +203,622 @@
   </si>
   <si>
     <t>0900000006</t>
+  </si>
+  <si>
+    <t>MT-008</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>01/09/1969</t>
+  </si>
+  <si>
+    <t>testG@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000007</t>
+  </si>
+  <si>
+    <t>MT,MT-HTM</t>
+  </si>
+  <si>
+    <t>MT-009</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>03/05/1982</t>
+  </si>
+  <si>
+    <t>testH@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000008</t>
+  </si>
+  <si>
+    <t>MT-HTM</t>
+  </si>
+  <si>
+    <t>MT-010</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>10/10/1976</t>
+  </si>
+  <si>
+    <t>testI@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000009</t>
+  </si>
+  <si>
+    <t>MT-011</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>08/08/1981</t>
+  </si>
+  <si>
+    <t>testJ@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000010</t>
+  </si>
+  <si>
+    <t>MT-012</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>01/09/1970</t>
+  </si>
+  <si>
+    <t>testK@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000011</t>
+  </si>
+  <si>
+    <t>MT-013</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>03/05/1983</t>
+  </si>
+  <si>
+    <t>testL@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000012</t>
+  </si>
+  <si>
+    <t>MT-014</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>10/10/1977</t>
+  </si>
+  <si>
+    <t>testM@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000013</t>
+  </si>
+  <si>
+    <t>MT-015</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>08/08/1982</t>
+  </si>
+  <si>
+    <t>testN@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000014</t>
+  </si>
+  <si>
+    <t>MT-016</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>01/09/1971</t>
+  </si>
+  <si>
+    <t>testO@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000015</t>
+  </si>
+  <si>
+    <t>MT-017</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>03/05/1984</t>
+  </si>
+  <si>
+    <t>testP@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000016</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>MT-018</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>10/10/1978</t>
+  </si>
+  <si>
+    <t>testQ@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000017</t>
+  </si>
+  <si>
+    <t>MT-019</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>08/08/1983</t>
+  </si>
+  <si>
+    <t>testR@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000018</t>
+  </si>
+  <si>
+    <t>MT-020</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>01/09/1972</t>
+  </si>
+  <si>
+    <t>testS@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000019</t>
+  </si>
+  <si>
+    <t>MT,MT-KPTT</t>
+  </si>
+  <si>
+    <t>MT-KPTT</t>
+  </si>
+  <si>
+    <t>MT-021</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>03/05/1985</t>
+  </si>
+  <si>
+    <t>testT@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000020</t>
+  </si>
+  <si>
+    <t>MT-022</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>10/10/1979</t>
+  </si>
+  <si>
+    <t>testU@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000021</t>
+  </si>
+  <si>
+    <t>MT-023</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>08/08/1984</t>
+  </si>
+  <si>
+    <t>testV@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000022</t>
+  </si>
+  <si>
+    <t>KHUD-001</t>
+  </si>
+  <si>
+    <t>Trần Văn</t>
+  </si>
+  <si>
+    <t>test1@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000023</t>
+  </si>
+  <si>
+    <t>KHUD,KHUD-TUD</t>
+  </si>
+  <si>
+    <t>KHUD-002</t>
+  </si>
+  <si>
+    <t>test2@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000024</t>
+  </si>
+  <si>
+    <t>KHUD-TUD</t>
+  </si>
+  <si>
+    <t>KHUD-003</t>
+  </si>
+  <si>
+    <t>Trần Thị</t>
+  </si>
+  <si>
+    <t>test3@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000025</t>
+  </si>
+  <si>
+    <t>KHUD-004</t>
+  </si>
+  <si>
+    <t>test4@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000026</t>
+  </si>
+  <si>
+    <t>KHUD-005</t>
+  </si>
+  <si>
+    <t>test5@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000027</t>
+  </si>
+  <si>
+    <t>KHUD,KHUD-CKT</t>
+  </si>
+  <si>
+    <t>KHUD-006</t>
+  </si>
+  <si>
+    <t>test6@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000028</t>
+  </si>
+  <si>
+    <t>KHUD-007</t>
+  </si>
+  <si>
+    <t>test7@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000029</t>
+  </si>
+  <si>
+    <t>KHUD-008</t>
+  </si>
+  <si>
+    <t>01/09/1973</t>
+  </si>
+  <si>
+    <t>test8@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000030</t>
+  </si>
+  <si>
+    <t>KHUD-CKT</t>
+  </si>
+  <si>
+    <t>KHUD-009</t>
+  </si>
+  <si>
+    <t>03/05/1986</t>
+  </si>
+  <si>
+    <t>test9@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000031</t>
+  </si>
+  <si>
+    <t>KHUD,KHUD-VLKT</t>
+  </si>
+  <si>
+    <t>KHUD-010</t>
+  </si>
+  <si>
+    <t>10/10/1980</t>
+  </si>
+  <si>
+    <t>test10@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000032</t>
+  </si>
+  <si>
+    <t>KHUD-VLKT</t>
+  </si>
+  <si>
+    <t>KHUD-011</t>
+  </si>
+  <si>
+    <t>08/08/1985</t>
+  </si>
+  <si>
+    <t>test11@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000033</t>
+  </si>
+  <si>
+    <t>KHUD-012</t>
+  </si>
+  <si>
+    <t>test12@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000034</t>
+  </si>
+  <si>
+    <t>KHUD-013</t>
+  </si>
+  <si>
+    <t>test13@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000035</t>
+  </si>
+  <si>
+    <t>KHUD,KHUD-CHUD</t>
+  </si>
+  <si>
+    <t>KHUD-014</t>
+  </si>
+  <si>
+    <t>test14@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000036</t>
+  </si>
+  <si>
+    <t>KHUD-015</t>
+  </si>
+  <si>
+    <t>test15@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000037</t>
+  </si>
+  <si>
+    <t>KHUD-CHUD</t>
+  </si>
+  <si>
+    <t>KHUD-016</t>
+  </si>
+  <si>
+    <t>test16@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000038</t>
+  </si>
+  <si>
+    <t>KHUD-017</t>
+  </si>
+  <si>
+    <t>test17@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000039</t>
+  </si>
+  <si>
+    <t>KHUD,KHUD-VLUD</t>
+  </si>
+  <si>
+    <t>KHUD-018</t>
+  </si>
+  <si>
+    <t>test18@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000040</t>
+  </si>
+  <si>
+    <t>KHUD-019</t>
+  </si>
+  <si>
+    <t>01/09/1974</t>
+  </si>
+  <si>
+    <t>test19@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000041</t>
+  </si>
+  <si>
+    <t>KHUD-VLUD</t>
+  </si>
+  <si>
+    <t>KHUD-020</t>
+  </si>
+  <si>
+    <t>03/05/1987</t>
+  </si>
+  <si>
+    <t>test20@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000042</t>
+  </si>
+  <si>
+    <t>KHUD-021</t>
+  </si>
+  <si>
+    <t>10/10/1981</t>
+  </si>
+  <si>
+    <t>test21@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000043</t>
+  </si>
+  <si>
+    <t>KHUD,KHUD-VLDC</t>
+  </si>
+  <si>
+    <t>KHUD-VLDC</t>
+  </si>
+  <si>
+    <t>KHUD-022</t>
+  </si>
+  <si>
+    <t>08/08/1986</t>
+  </si>
+  <si>
+    <t>test22@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000044</t>
+  </si>
+  <si>
+    <t>KHUD-023</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>06/04/1982</t>
+  </si>
+  <si>
+    <t>test23@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000045</t>
+  </si>
+  <si>
+    <t>KHUD-024</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>09/07/1980</t>
+  </si>
+  <si>
+    <t>test24@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000046</t>
+  </si>
+  <si>
+    <t>KHUD-025</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>01/01/1990</t>
+  </si>
+  <si>
+    <t>test25@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000047</t>
+  </si>
+  <si>
+    <t>KHUD,KHUD-LLCT</t>
+  </si>
+  <si>
+    <t>KHUD-026</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>08/08/1987</t>
+  </si>
+  <si>
+    <t>test26@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000048</t>
+  </si>
+  <si>
+    <t>KHUD-LLCT</t>
+  </si>
+  <si>
+    <t>KHUD-027</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>test27@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000049</t>
+  </si>
+  <si>
+    <t>KHUD-028</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>test28@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +833,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -255,6 +871,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -570,21 +1189,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -865,6 +1485,1546 @@
         <v>20</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J29" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J30" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" t="s">
+        <v>163</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J32" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J33" t="s">
+        <v>179</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34" t="s">
+        <v>179</v>
+      </c>
+      <c r="K34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J35" t="s">
+        <v>179</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J36" t="s">
+        <v>179</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J38" t="s">
+        <v>195</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J39" t="s">
+        <v>195</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J40" t="s">
+        <v>195</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J42" t="s">
+        <v>209</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J43" t="s">
+        <v>209</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44" t="s">
+        <v>209</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J45" t="s">
+        <v>226</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J46" t="s">
+        <v>226</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J47" t="s">
+        <v>226</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J48" t="s">
+        <v>226</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J49" t="s">
+        <v>247</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J50" t="s">
+        <v>247</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J51" t="s">
+        <v>247</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J52" t="s">
+        <v>247</v>
+      </c>
+      <c r="K52">
         <v>0</v>
       </c>
     </row>
@@ -877,6 +3037,51 @@
     <hyperlink ref="F6" r:id="rId5" xr:uid="{9ABBC348-CCAF-4E79-977C-AB94F71BB26C}"/>
     <hyperlink ref="F5" r:id="rId6" xr:uid="{F5E3A769-6BD2-4671-934F-8225672220D1}"/>
     <hyperlink ref="F4" r:id="rId7" xr:uid="{166FFF32-C778-41AF-A124-E42E2F762C87}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{44AF28FD-D36D-4609-BE4C-CDD9535FAE63}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{A46CEFFB-49A2-438B-9C36-21C73C989BB2}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{F97D9929-6474-460A-88BD-31071EB4AB27}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{25D237C3-9D7B-4710-B8C8-8FCA652909C6}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{C45B6321-3E41-47FC-8924-F8C918734226}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{C501B5E4-4343-4123-A284-1A1FD4CCCE33}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{7AFEE662-01CC-4597-8B5D-C24A9A827752}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{614D7551-3C9D-4E83-9F1D-27C347FE189B}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{E61F4396-B475-48C6-9C0A-447BC41EF354}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{0ED8F7AC-9F8F-4E19-9B16-83775C67231F}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{73F7038F-94A9-452A-AE34-8EDE32754062}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{C074A8CA-B81F-4B76-9DDB-84DBD685D22D}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{49291041-64F3-4BC1-AB5B-44420B623CB3}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{9FAFDC42-8A84-496E-908A-E5B0FB6DCD36}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{AE93C852-30DA-4DE8-9D19-94B5E18E449C}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{EC8F4BDF-143B-4F84-9747-DE60B2B280D7}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{6E4429AC-F895-45B1-8402-DA40D93D01D0}"/>
+    <hyperlink ref="F26:F46" r:id="rId25" display="test1@gmail.com" xr:uid="{20F8B984-2CB6-4250-BC08-7431A00FAF7D}"/>
+    <hyperlink ref="F26" r:id="rId26" xr:uid="{331D5F8F-94DC-49D9-BC67-51177BBA7177}"/>
+    <hyperlink ref="F27" r:id="rId27" xr:uid="{09C6CEA8-01AB-42CA-81DB-CC1E800474AD}"/>
+    <hyperlink ref="F28" r:id="rId28" xr:uid="{6D8C8DB5-C9F8-41EC-8D71-319031A6690D}"/>
+    <hyperlink ref="F29" r:id="rId29" xr:uid="{1A73C12F-5DEB-41BB-BC15-626AEF4E7893}"/>
+    <hyperlink ref="F30" r:id="rId30" xr:uid="{414A361B-78EC-4A9E-9499-D60BAF660154}"/>
+    <hyperlink ref="F31" r:id="rId31" xr:uid="{637204F3-FA51-40C7-90AE-1F1ED5D31511}"/>
+    <hyperlink ref="F32" r:id="rId32" xr:uid="{5072DE64-528E-43BE-B085-50A1ED79827E}"/>
+    <hyperlink ref="F33" r:id="rId33" xr:uid="{69887967-E2AE-4885-9551-7E5A0C2C9812}"/>
+    <hyperlink ref="F34" r:id="rId34" xr:uid="{31F96736-576C-472D-B7AC-41142D8C2504}"/>
+    <hyperlink ref="F35" r:id="rId35" xr:uid="{5D351ED4-45F7-455A-84F5-E2C285FF4AD2}"/>
+    <hyperlink ref="F36" r:id="rId36" xr:uid="{B654AEF0-1A0C-4C7A-AEA3-58C442C7ED8D}"/>
+    <hyperlink ref="F37" r:id="rId37" xr:uid="{A309C3FB-B476-441D-A9EA-3B957F40038D}"/>
+    <hyperlink ref="F38" r:id="rId38" xr:uid="{E0B26232-6501-4FAF-8813-B3E54EC36D73}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{3588932A-EC75-4A1A-9983-8AACB7B634C9}"/>
+    <hyperlink ref="F39" r:id="rId40" xr:uid="{F9A20E59-0989-431A-8776-4E13DED9213A}"/>
+    <hyperlink ref="F42" r:id="rId41" xr:uid="{4470705A-3476-4FFE-9FE3-49505AFF9645}"/>
+    <hyperlink ref="F41" r:id="rId42" xr:uid="{46CB5BC7-C99D-403E-B2AB-B3420B2BB6AE}"/>
+    <hyperlink ref="F45" r:id="rId43" xr:uid="{ABE72071-FF20-4CD5-9BB1-DE8D1D933865}"/>
+    <hyperlink ref="F46" r:id="rId44" xr:uid="{32683BA2-2D75-4E0E-9F88-7CAFF4642794}"/>
+    <hyperlink ref="F43" r:id="rId45" xr:uid="{BAF2E1C2-46E2-4E4F-B8D2-1911878913A2}"/>
+    <hyperlink ref="F44" r:id="rId46" xr:uid="{9A187313-5EC8-42E8-9858-E6814DD9CCAB}"/>
+    <hyperlink ref="F47" r:id="rId47" xr:uid="{3FD1F701-21D1-4C00-A77B-E8AC2C4AD7F7}"/>
+    <hyperlink ref="F48" r:id="rId48" xr:uid="{C23D78C9-2267-4651-A1B9-CC79C6709B32}"/>
+    <hyperlink ref="F49" r:id="rId49" xr:uid="{48E74F89-6830-4FAA-997B-17DC87B9D090}"/>
+    <hyperlink ref="F50" r:id="rId50" xr:uid="{E1566E71-A278-4BCF-812E-F34EB87E3A2C}"/>
+    <hyperlink ref="F51" r:id="rId51" xr:uid="{7B1DBAA7-FE0D-40D2-9632-4942550F38B6}"/>
+    <hyperlink ref="F52" r:id="rId52" xr:uid="{41844B19-4123-4142-9661-18AF850CDD1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/helper/seed/User.xlsx
+++ b/helper/seed/User.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24110"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4F24901-1986-4C22-A9F8-5548DFF3E4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{241E678A-70B7-4758-8DF2-EB6888846358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="280">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,36 @@
     <t>Manage</t>
   </si>
   <si>
+    <t>QL-000</t>
+  </si>
+  <si>
+    <t>Ông Quản</t>
+  </si>
+  <si>
+    <t>Lý</t>
+  </si>
+  <si>
+    <t>18/10/1999</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>quanly.ht@gmail.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>0937694708</t>
+  </si>
+  <si>
+    <t>VCQL</t>
+  </si>
+  <si>
     <t>MT-001</t>
   </si>
   <si>
@@ -70,21 +100,9 @@
     <t>Hoàng</t>
   </si>
   <si>
-    <t>18/10/1999</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
     <t>hoangtruong181099@gmail.com</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>0937694709</t>
   </si>
   <si>
@@ -148,12 +166,12 @@
     <t>testC@gmail.com</t>
   </si>
   <si>
-    <t>manager</t>
-  </si>
-  <si>
     <t>0900000003</t>
   </si>
   <si>
+    <t>MT,MT-KHMT,VCQL</t>
+  </si>
+  <si>
     <t>MT-KHMT</t>
   </si>
   <si>
@@ -187,6 +205,9 @@
     <t>0900000005</t>
   </si>
   <si>
+    <t>MT,MT-HTTT,VCQL</t>
+  </si>
+  <si>
     <t>MT-HTTT</t>
   </si>
   <si>
@@ -238,6 +259,9 @@
     <t>0900000008</t>
   </si>
   <si>
+    <t>MT,MT-HTM,VCQL</t>
+  </si>
+  <si>
     <t>MT-HTM</t>
   </si>
   <si>
@@ -301,6 +325,9 @@
     <t>0900000012</t>
   </si>
   <si>
+    <t>MT,MT-KTMT,VCQL</t>
+  </si>
+  <si>
     <t>MT-014</t>
   </si>
   <si>
@@ -379,6 +406,9 @@
     <t>0900000017</t>
   </si>
   <si>
+    <t>MT,VCQL</t>
+  </si>
+  <si>
     <t>MT-019</t>
   </si>
   <si>
@@ -409,27 +439,30 @@
     <t>0900000019</t>
   </si>
   <si>
+    <t>MT,MT-KPTT,VCQL</t>
+  </si>
+  <si>
+    <t>MT-KPTT</t>
+  </si>
+  <si>
+    <t>MT-021</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>03/05/1985</t>
+  </si>
+  <si>
+    <t>testT@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000020</t>
+  </si>
+  <si>
     <t>MT,MT-KPTT</t>
   </si>
   <si>
-    <t>MT-KPTT</t>
-  </si>
-  <si>
-    <t>MT-021</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>03/05/1985</t>
-  </si>
-  <si>
-    <t>testT@gmail.com</t>
-  </si>
-  <si>
-    <t>0900000020</t>
-  </si>
-  <si>
     <t>MT-022</t>
   </si>
   <si>
@@ -484,6 +517,9 @@
     <t>0900000024</t>
   </si>
   <si>
+    <t>KHUD,KHUD-TUD,VCQL</t>
+  </si>
+  <si>
     <t>KHUD-TUD</t>
   </si>
   <si>
@@ -550,6 +586,9 @@
     <t>0900000030</t>
   </si>
   <si>
+    <t>KHUD,KHUD-CKT,VCQL</t>
+  </si>
+  <si>
     <t>KHUD-CKT</t>
   </si>
   <si>
@@ -580,6 +619,9 @@
     <t>0900000032</t>
   </si>
   <si>
+    <t>KHUD,KHUD-VLKT,VCQL</t>
+  </si>
+  <si>
     <t>KHUD-VLKT</t>
   </si>
   <si>
@@ -634,6 +676,9 @@
     <t>0900000037</t>
   </si>
   <si>
+    <t>KHUD,KHUD-CHUD,VCQL</t>
+  </si>
+  <si>
     <t>KHUD-CHUD</t>
   </si>
   <si>
@@ -679,6 +724,9 @@
     <t>0900000041</t>
   </si>
   <si>
+    <t>KHUD,KHUD-VLUD,VCQL</t>
+  </si>
+  <si>
     <t>KHUD-VLUD</t>
   </si>
   <si>
@@ -706,24 +754,27 @@
     <t>0900000043</t>
   </si>
   <si>
+    <t>KHUD,KHUD-VLDC,VCQL</t>
+  </si>
+  <si>
+    <t>KHUD-VLDC</t>
+  </si>
+  <si>
+    <t>KHUD-022</t>
+  </si>
+  <si>
+    <t>08/08/1986</t>
+  </si>
+  <si>
+    <t>test22@gmail.com</t>
+  </si>
+  <si>
+    <t>0900000044</t>
+  </si>
+  <si>
     <t>KHUD,KHUD-VLDC</t>
   </si>
   <si>
-    <t>KHUD-VLDC</t>
-  </si>
-  <si>
-    <t>KHUD-022</t>
-  </si>
-  <si>
-    <t>08/08/1986</t>
-  </si>
-  <si>
-    <t>test22@gmail.com</t>
-  </si>
-  <si>
-    <t>0900000044</t>
-  </si>
-  <si>
     <t>KHUD-023</t>
   </si>
   <si>
@@ -785,6 +836,9 @@
   </si>
   <si>
     <t>0900000048</t>
+  </si>
+  <si>
+    <t>KHUD,KHUD-LLCT,VCQL</t>
   </si>
   <si>
     <t>KHUD-LLCT</t>
@@ -1189,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1204,7 +1258,7 @@
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1274,8 +1328,8 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1289,25 +1343,25 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1315,34 +1369,34 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="J4" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1350,19 +1404,19 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>39</v>
@@ -1371,86 +1425,86 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" t="s">
         <v>47</v>
       </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1458,7 +1512,7 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>55</v>
@@ -1467,7 +1521,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>57</v>
@@ -1482,30 +1536,30 @@
         <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1514,10 +1568,10 @@
         <v>18</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1525,57 +1579,57 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -1584,33 +1638,33 @@
         <v>18</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1619,10 +1673,10 @@
         <v>18</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1630,22 +1684,22 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1654,10 +1708,10 @@
         <v>18</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1665,57 +1719,57 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>89</v>
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>94</v>
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -1724,33 +1778,33 @@
         <v>18</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -1759,10 +1813,10 @@
         <v>18</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1770,22 +1824,22 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
@@ -1794,10 +1848,10 @@
         <v>18</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1805,22 +1859,22 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
@@ -1829,10 +1883,10 @@
         <v>18</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1840,127 +1894,127 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" t="s">
-        <v>111</v>
+        <v>120</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" t="s">
         <v>120</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J20" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -1969,33 +2023,33 @@
         <v>18</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J22" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
@@ -2004,10 +2058,10 @@
         <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2015,22 +2069,22 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
@@ -2039,10 +2093,10 @@
         <v>18</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2050,34 +2104,34 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" t="s">
         <v>144</v>
-      </c>
-      <c r="B25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J25" t="s">
-        <v>148</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2085,57 +2139,57 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="J26" t="s">
-        <v>148</v>
-      </c>
-      <c r="K26" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -2144,33 +2198,33 @@
         <v>18</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J27" t="s">
-        <v>148</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="K27" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
@@ -2179,10 +2233,10 @@
         <v>18</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" t="s">
         <v>159</v>
-      </c>
-      <c r="J28" t="s">
-        <v>148</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2190,22 +2244,22 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
@@ -2214,10 +2268,10 @@
         <v>18</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="J29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2225,22 +2279,22 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
@@ -2249,10 +2303,10 @@
         <v>18</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J30" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2260,22 +2314,22 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
@@ -2284,10 +2338,10 @@
         <v>18</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="J31" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2295,57 +2349,57 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="J32" t="s">
-        <v>163</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -2354,68 +2408,68 @@
         <v>18</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J33" t="s">
-        <v>179</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J34" t="s">
-        <v>179</v>
-      </c>
-      <c r="K34" t="s">
-        <v>184</v>
+        <v>192</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
@@ -2424,33 +2478,33 @@
         <v>18</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="J35" t="s">
-        <v>179</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="K35" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
@@ -2459,10 +2513,10 @@
         <v>18</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="J36" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2470,34 +2524,34 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J37" t="s">
         <v>192</v>
-      </c>
-      <c r="B37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J37" t="s">
-        <v>195</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2505,22 +2559,22 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
@@ -2529,10 +2583,10 @@
         <v>18</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="J38" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2540,57 +2594,57 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="J39" t="s">
-        <v>195</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
@@ -2599,33 +2653,33 @@
         <v>18</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="J40" t="s">
-        <v>195</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -2634,7 +2688,7 @@
         <v>18</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="J41" t="s">
         <v>209</v>
@@ -2645,22 +2699,22 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
@@ -2669,10 +2723,10 @@
         <v>18</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J42" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2680,57 +2734,57 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="J43" t="s">
-        <v>209</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -2739,68 +2793,68 @@
         <v>18</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="J44" t="s">
-        <v>209</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J45" t="s">
         <v>224</v>
       </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J45" t="s">
-        <v>226</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>227</v>
+      <c r="K45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
@@ -2809,33 +2863,33 @@
         <v>18</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="J46" t="s">
-        <v>226</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -2844,10 +2898,10 @@
         <v>18</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="J47" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2855,22 +2909,22 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -2879,10 +2933,10 @@
         <v>18</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="J48" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2890,22 +2944,22 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
@@ -2914,10 +2968,10 @@
         <v>18</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="J49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2925,57 +2979,57 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C50" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="J50" t="s">
-        <v>247</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>253</v>
+        <v>264</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -2984,104 +3038,140 @@
         <v>18</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="J51" t="s">
-        <v>247</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J52" t="s">
+        <v>264</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>276</v>
+      </c>
+      <c r="B53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J52" t="s">
-        <v>247</v>
-      </c>
-      <c r="K52">
+      <c r="F53" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J53" t="s">
+        <v>264</v>
+      </c>
+      <c r="K53">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{77CC3A16-4910-476A-9CA2-65B1A37FDA87}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{6B2BEC6E-E6CA-4D0B-A50D-9091C52947B8}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{653DCC72-B209-4144-810B-2891626C762E}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{97F76FAE-ED76-4A85-8317-3A24B33B73EC}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{9ABBC348-CCAF-4E79-977C-AB94F71BB26C}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{F5E3A769-6BD2-4671-934F-8225672220D1}"/>
-    <hyperlink ref="F4" r:id="rId7" xr:uid="{166FFF32-C778-41AF-A124-E42E2F762C87}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{44AF28FD-D36D-4609-BE4C-CDD9535FAE63}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{A46CEFFB-49A2-438B-9C36-21C73C989BB2}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{F97D9929-6474-460A-88BD-31071EB4AB27}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{25D237C3-9D7B-4710-B8C8-8FCA652909C6}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{C45B6321-3E41-47FC-8924-F8C918734226}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{C501B5E4-4343-4123-A284-1A1FD4CCCE33}"/>
-    <hyperlink ref="F14" r:id="rId14" xr:uid="{7AFEE662-01CC-4597-8B5D-C24A9A827752}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{614D7551-3C9D-4E83-9F1D-27C347FE189B}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{E61F4396-B475-48C6-9C0A-447BC41EF354}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{0ED8F7AC-9F8F-4E19-9B16-83775C67231F}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{73F7038F-94A9-452A-AE34-8EDE32754062}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{C074A8CA-B81F-4B76-9DDB-84DBD685D22D}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{49291041-64F3-4BC1-AB5B-44420B623CB3}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{9FAFDC42-8A84-496E-908A-E5B0FB6DCD36}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{AE93C852-30DA-4DE8-9D19-94B5E18E449C}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{EC8F4BDF-143B-4F84-9747-DE60B2B280D7}"/>
-    <hyperlink ref="F25" r:id="rId24" xr:uid="{6E4429AC-F895-45B1-8402-DA40D93D01D0}"/>
-    <hyperlink ref="F26:F46" r:id="rId25" display="test1@gmail.com" xr:uid="{20F8B984-2CB6-4250-BC08-7431A00FAF7D}"/>
-    <hyperlink ref="F26" r:id="rId26" xr:uid="{331D5F8F-94DC-49D9-BC67-51177BBA7177}"/>
-    <hyperlink ref="F27" r:id="rId27" xr:uid="{09C6CEA8-01AB-42CA-81DB-CC1E800474AD}"/>
-    <hyperlink ref="F28" r:id="rId28" xr:uid="{6D8C8DB5-C9F8-41EC-8D71-319031A6690D}"/>
-    <hyperlink ref="F29" r:id="rId29" xr:uid="{1A73C12F-5DEB-41BB-BC15-626AEF4E7893}"/>
-    <hyperlink ref="F30" r:id="rId30" xr:uid="{414A361B-78EC-4A9E-9499-D60BAF660154}"/>
-    <hyperlink ref="F31" r:id="rId31" xr:uid="{637204F3-FA51-40C7-90AE-1F1ED5D31511}"/>
-    <hyperlink ref="F32" r:id="rId32" xr:uid="{5072DE64-528E-43BE-B085-50A1ED79827E}"/>
-    <hyperlink ref="F33" r:id="rId33" xr:uid="{69887967-E2AE-4885-9551-7E5A0C2C9812}"/>
-    <hyperlink ref="F34" r:id="rId34" xr:uid="{31F96736-576C-472D-B7AC-41142D8C2504}"/>
-    <hyperlink ref="F35" r:id="rId35" xr:uid="{5D351ED4-45F7-455A-84F5-E2C285FF4AD2}"/>
-    <hyperlink ref="F36" r:id="rId36" xr:uid="{B654AEF0-1A0C-4C7A-AEA3-58C442C7ED8D}"/>
-    <hyperlink ref="F37" r:id="rId37" xr:uid="{A309C3FB-B476-441D-A9EA-3B957F40038D}"/>
-    <hyperlink ref="F38" r:id="rId38" xr:uid="{E0B26232-6501-4FAF-8813-B3E54EC36D73}"/>
-    <hyperlink ref="F40" r:id="rId39" xr:uid="{3588932A-EC75-4A1A-9983-8AACB7B634C9}"/>
-    <hyperlink ref="F39" r:id="rId40" xr:uid="{F9A20E59-0989-431A-8776-4E13DED9213A}"/>
-    <hyperlink ref="F42" r:id="rId41" xr:uid="{4470705A-3476-4FFE-9FE3-49505AFF9645}"/>
-    <hyperlink ref="F41" r:id="rId42" xr:uid="{46CB5BC7-C99D-403E-B2AB-B3420B2BB6AE}"/>
-    <hyperlink ref="F45" r:id="rId43" xr:uid="{ABE72071-FF20-4CD5-9BB1-DE8D1D933865}"/>
-    <hyperlink ref="F46" r:id="rId44" xr:uid="{32683BA2-2D75-4E0E-9F88-7CAFF4642794}"/>
-    <hyperlink ref="F43" r:id="rId45" xr:uid="{BAF2E1C2-46E2-4E4F-B8D2-1911878913A2}"/>
-    <hyperlink ref="F44" r:id="rId46" xr:uid="{9A187313-5EC8-42E8-9858-E6814DD9CCAB}"/>
-    <hyperlink ref="F47" r:id="rId47" xr:uid="{3FD1F701-21D1-4C00-A77B-E8AC2C4AD7F7}"/>
-    <hyperlink ref="F48" r:id="rId48" xr:uid="{C23D78C9-2267-4651-A1B9-CC79C6709B32}"/>
-    <hyperlink ref="F49" r:id="rId49" xr:uid="{48E74F89-6830-4FAA-997B-17DC87B9D090}"/>
-    <hyperlink ref="F50" r:id="rId50" xr:uid="{E1566E71-A278-4BCF-812E-F34EB87E3A2C}"/>
-    <hyperlink ref="F51" r:id="rId51" xr:uid="{7B1DBAA7-FE0D-40D2-9632-4942550F38B6}"/>
-    <hyperlink ref="F52" r:id="rId52" xr:uid="{41844B19-4123-4142-9661-18AF850CDD1A}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{77CC3A16-4910-476A-9CA2-65B1A37FDA87}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{6B2BEC6E-E6CA-4D0B-A50D-9091C52947B8}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{653DCC72-B209-4144-810B-2891626C762E}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{97F76FAE-ED76-4A85-8317-3A24B33B73EC}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{9ABBC348-CCAF-4E79-977C-AB94F71BB26C}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{F5E3A769-6BD2-4671-934F-8225672220D1}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{166FFF32-C778-41AF-A124-E42E2F762C87}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{44AF28FD-D36D-4609-BE4C-CDD9535FAE63}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{A46CEFFB-49A2-438B-9C36-21C73C989BB2}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{F97D9929-6474-460A-88BD-31071EB4AB27}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{25D237C3-9D7B-4710-B8C8-8FCA652909C6}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{C45B6321-3E41-47FC-8924-F8C918734226}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{C501B5E4-4343-4123-A284-1A1FD4CCCE33}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{7AFEE662-01CC-4597-8B5D-C24A9A827752}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{614D7551-3C9D-4E83-9F1D-27C347FE189B}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{E61F4396-B475-48C6-9C0A-447BC41EF354}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{0ED8F7AC-9F8F-4E19-9B16-83775C67231F}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{73F7038F-94A9-452A-AE34-8EDE32754062}"/>
+    <hyperlink ref="F21" r:id="rId19" xr:uid="{C074A8CA-B81F-4B76-9DDB-84DBD685D22D}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{49291041-64F3-4BC1-AB5B-44420B623CB3}"/>
+    <hyperlink ref="F23" r:id="rId21" xr:uid="{9FAFDC42-8A84-496E-908A-E5B0FB6DCD36}"/>
+    <hyperlink ref="F24" r:id="rId22" xr:uid="{AE93C852-30DA-4DE8-9D19-94B5E18E449C}"/>
+    <hyperlink ref="F25" r:id="rId23" xr:uid="{EC8F4BDF-143B-4F84-9747-DE60B2B280D7}"/>
+    <hyperlink ref="F26" r:id="rId24" xr:uid="{6E4429AC-F895-45B1-8402-DA40D93D01D0}"/>
+    <hyperlink ref="F27:F47" r:id="rId25" display="test1@gmail.com" xr:uid="{20F8B984-2CB6-4250-BC08-7431A00FAF7D}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{331D5F8F-94DC-49D9-BC67-51177BBA7177}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{09C6CEA8-01AB-42CA-81DB-CC1E800474AD}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{6D8C8DB5-C9F8-41EC-8D71-319031A6690D}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{1A73C12F-5DEB-41BB-BC15-626AEF4E7893}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{414A361B-78EC-4A9E-9499-D60BAF660154}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{637204F3-FA51-40C7-90AE-1F1ED5D31511}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{5072DE64-528E-43BE-B085-50A1ED79827E}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{69887967-E2AE-4885-9551-7E5A0C2C9812}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{31F96736-576C-472D-B7AC-41142D8C2504}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{5D351ED4-45F7-455A-84F5-E2C285FF4AD2}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{B654AEF0-1A0C-4C7A-AEA3-58C442C7ED8D}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{A309C3FB-B476-441D-A9EA-3B957F40038D}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{E0B26232-6501-4FAF-8813-B3E54EC36D73}"/>
+    <hyperlink ref="F41" r:id="rId39" xr:uid="{3588932A-EC75-4A1A-9983-8AACB7B634C9}"/>
+    <hyperlink ref="F40" r:id="rId40" xr:uid="{F9A20E59-0989-431A-8776-4E13DED9213A}"/>
+    <hyperlink ref="F43" r:id="rId41" xr:uid="{4470705A-3476-4FFE-9FE3-49505AFF9645}"/>
+    <hyperlink ref="F42" r:id="rId42" xr:uid="{46CB5BC7-C99D-403E-B2AB-B3420B2BB6AE}"/>
+    <hyperlink ref="F46" r:id="rId43" xr:uid="{ABE72071-FF20-4CD5-9BB1-DE8D1D933865}"/>
+    <hyperlink ref="F47" r:id="rId44" xr:uid="{32683BA2-2D75-4E0E-9F88-7CAFF4642794}"/>
+    <hyperlink ref="F44" r:id="rId45" xr:uid="{BAF2E1C2-46E2-4E4F-B8D2-1911878913A2}"/>
+    <hyperlink ref="F45" r:id="rId46" xr:uid="{9A187313-5EC8-42E8-9858-E6814DD9CCAB}"/>
+    <hyperlink ref="F48" r:id="rId47" xr:uid="{3FD1F701-21D1-4C00-A77B-E8AC2C4AD7F7}"/>
+    <hyperlink ref="F49" r:id="rId48" xr:uid="{C23D78C9-2267-4651-A1B9-CC79C6709B32}"/>
+    <hyperlink ref="F50" r:id="rId49" xr:uid="{48E74F89-6830-4FAA-997B-17DC87B9D090}"/>
+    <hyperlink ref="F51" r:id="rId50" xr:uid="{E1566E71-A278-4BCF-812E-F34EB87E3A2C}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{7B1DBAA7-FE0D-40D2-9632-4942550F38B6}"/>
+    <hyperlink ref="F53" r:id="rId52" xr:uid="{41844B19-4123-4142-9661-18AF850CDD1A}"/>
+    <hyperlink ref="F2" r:id="rId53" xr:uid="{8CEA2466-2796-4984-98E1-6082750CC8F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
